--- a/data/income_statement/2digits/size/30_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/30_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>30-Manufacture of other transport equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>30-Manufacture of other transport equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>44179.32096</v>
+        <v>57029.14936</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>48018.55619</v>
+        <v>54245.04538</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>42129.32307999999</v>
+        <v>53316.87769</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>50573.28964</v>
+        <v>63464.89006000001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>61762.27251</v>
+        <v>77573.03051000001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>51200.70002</v>
+        <v>72142.17429</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>70599.86389000001</v>
+        <v>90013.60423</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>71164.66322999999</v>
+        <v>98019.80013</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>89493.97621000001</v>
+        <v>163273.71738</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>245347.01981</v>
+        <v>309490.42582</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>266640.22846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>321604.12707</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>388112.795</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>33609.84964</v>
+        <v>42604.25172</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>33114.5414</v>
+        <v>37912.72718</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>33748.91681</v>
+        <v>41855.66172</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>36970.35415000001</v>
+        <v>45894.89341</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>39286.53767000001</v>
+        <v>48959.02338999999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>38946.32107</v>
+        <v>54870.92952000001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>41598.83169</v>
+        <v>56207.07365999999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>52881.82709999999</v>
+        <v>73966.9158</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>77714.28098000001</v>
+        <v>144495.71046</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>183009.00772</v>
+        <v>234308.39571</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>222416.46804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>259663.20301</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>296728.022</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>10021.06648</v>
+        <v>13193.19037</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>12373.26218</v>
+        <v>13226.01682</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7261.03092</v>
+        <v>9865.098800000002</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>11135.01452</v>
+        <v>13970.7128</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>21590.41827</v>
+        <v>24552.42454</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11547.51764</v>
+        <v>14820.03561</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>26979.23936</v>
+        <v>29733.30046</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16392.72212</v>
+        <v>19174.69199</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10586.99274</v>
+        <v>14112.03021</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>57448.46596</v>
+        <v>65285.26765000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>39228.62629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>52054.90332</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>75058.281</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>548.4048399999999</v>
+        <v>1231.70727</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2530.75261</v>
+        <v>3106.30138</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1119.37535</v>
+        <v>1596.11717</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2467.92097</v>
+        <v>3599.28385</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>885.3165700000001</v>
+        <v>4061.58258</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>706.86131</v>
+        <v>2451.20916</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2021.79284</v>
+        <v>4073.23011</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1890.11401</v>
+        <v>4878.19234</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1192.70249</v>
+        <v>4665.97671</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4889.54613</v>
+        <v>9896.762460000002</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4995.134129999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9886.02074</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>16326.492</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>307.60923</v>
+        <v>507.45329</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>676.8309199999999</v>
+        <v>684.0309199999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1255.37069</v>
+        <v>1286.54228</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>323.19607</v>
+        <v>333.20534</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>60.45447</v>
+        <v>76.51911</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2044.11696</v>
+        <v>2318.65925</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>100.52544</v>
+        <v>219.96646</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>548.5040700000001</v>
+        <v>998.3096299999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>376.30798</v>
+        <v>38628.73329</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1578.16315</v>
+        <v>2192.4345</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1494.62625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2388.21247</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4742.817</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>114.10684</v>
+        <v>303.90574</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>78.62012</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1160.70074</v>
+        <v>1190.67294</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>276.79295</v>
+        <v>286.80222</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>37.34983999999999</v>
+        <v>52.77353</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1988.26627</v>
+        <v>2256.48028</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>33.55645</v>
+        <v>135.75441</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>472.5794</v>
+        <v>922.3071399999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>369.2843999999999</v>
+        <v>38591.0316</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1533.8667</v>
+        <v>2148.13805</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1350.45733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2215.40226</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4562.036</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>178.05385</v>
+        <v>188.09901</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>590.04662</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>85.84586999999999</v>
+        <v>87.04526000000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>28.18715</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6.76223</v>
+        <v>7.40318</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>12.96637</v>
+        <v>19.15665</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>32.24043</v>
+        <v>42.77043</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>5.87</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5.85973</v>
+        <v>36.53784</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>10.09336</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>50.06046</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>70.913</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15.44854</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>8.16418</v>
+        <v>15.36418</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>8.82408</v>
@@ -1238,13 +1179,13 @@
         <v>16.3424</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>42.88432</v>
+        <v>43.02232</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>34.72855999999999</v>
+        <v>41.44161999999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>70.05467</v>
+        <v>70.13249</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1.16385</v>
@@ -1253,214 +1194,244 @@
         <v>34.20309</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>94.10845999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>122.74975</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>109.868</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>43871.71173</v>
+        <v>56521.69607000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>47341.72527</v>
+        <v>53561.01445999999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>40873.95239</v>
+        <v>52030.33541</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>50250.09357</v>
+        <v>63131.68472</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>61701.81804</v>
+        <v>77496.5114</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>49156.58306</v>
+        <v>69823.51504000001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>70499.33845000001</v>
+        <v>89793.63777000002</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>70616.15916</v>
+        <v>97021.4905</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>89117.66823000001</v>
+        <v>124644.98409</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>243768.85666</v>
+        <v>307297.99132</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>265145.60221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>319215.9146</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>383369.978</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>34087.05894</v>
+        <v>44690.38087000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>37385.78748000001</v>
+        <v>42531.91312</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>32010.55241</v>
+        <v>38564.56139</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>42356.74794000001</v>
+        <v>51108.03479</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>49763.37697</v>
+        <v>59276.9264</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>50645.35505</v>
+        <v>70415.37763999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>54445.15560000001</v>
+        <v>67583.18002</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>55627.10217999999</v>
+        <v>75269.61768000001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>72853.91644000002</v>
+        <v>101188.24252</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>171249.90643</v>
+        <v>221622.61327</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>206854.51079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>259740.71607</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>286396.156</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>17627.27801</v>
+        <v>22444.79845</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>15624.10996</v>
+        <v>17165.15703</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>19091.24407</v>
+        <v>21840.5813</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>25208.03818</v>
+        <v>28856.88533</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>35853.24997</v>
+        <v>38940.60826000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>20059.42982</v>
+        <v>27255.65058</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>29086.22857</v>
+        <v>34376.89719</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>25689.50944</v>
+        <v>32794.62172</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>25437.83803</v>
+        <v>37880.57586</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>63605.37237</v>
+        <v>79932.94802000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>93474.41615999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>114251.0525</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>126934.8</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>7157.51834</v>
+        <v>10434.14208</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>9900.560730000001</v>
+        <v>10318.27541</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>6466.60083</v>
+        <v>7863.162370000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7304.595789999999</v>
+        <v>10076.61042</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6838.73594</v>
+        <v>10322.51416</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>15037.80002</v>
+        <v>22621.8083</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>18918.64904</v>
+        <v>23175.32611</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>13664.41239</v>
+        <v>18072.16864</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>24516.01592</v>
+        <v>30132.82282</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>74847.35390999999</v>
+        <v>98031.39392</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>83469.33102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>95499.73774</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>109172.965</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4759.13009</v>
+        <v>7268.307839999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>11241.02394</v>
+        <v>14399.63855</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6058.952550000001</v>
+        <v>8467.062759999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9808.256660000001</v>
+        <v>12138.68173</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7004.61412</v>
+        <v>8838.263359999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15452.38955</v>
+        <v>18095.8797</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6404.84371</v>
+        <v>9708.72363</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15586.71119</v>
+        <v>23676.85816</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>22706.86899</v>
+        <v>32659.80988</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>31862.40493</v>
+        <v>42707.0021</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>28204.64589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>47787.78835</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>47104.786</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>4543.1325</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>620.09285</v>
+        <v>648.84213</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>393.75496</v>
@@ -1469,112 +1440,127 @@
         <v>35.85731</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>66.77694</v>
+        <v>1175.54062</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>95.73566000000001</v>
+        <v>2442.03906</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35.43428</v>
+        <v>322.23309</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>686.46916</v>
+        <v>725.96916</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>193.1935</v>
+        <v>515.03396</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>934.77522</v>
+        <v>951.26923</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1706.11772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2202.13748</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3183.605</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>9784.652789999998</v>
+        <v>11831.3152</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9955.937790000002</v>
+        <v>11029.10134</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8863.39998</v>
+        <v>13465.77402</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7893.34563</v>
+        <v>12023.64993</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11938.44107</v>
+        <v>18219.585</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-1488.77199</v>
+        <v>-591.8626</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>16054.18285</v>
+        <v>22210.45775</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>14989.05698</v>
+        <v>21751.87282</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>16263.75179</v>
+        <v>23456.74157</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>72518.95023</v>
+        <v>85675.37805</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>58291.09142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>59475.19852999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>96973.822</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9050.312840000001</v>
+        <v>14732.15925</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9149.22206</v>
+        <v>14156.06363</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>11236.52171</v>
+        <v>19314.95099</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>10665.90335</v>
+        <v>26567.33443</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>12409.86564</v>
+        <v>29534.04775</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>14149.74597</v>
+        <v>45098.38096</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>18044.97326</v>
+        <v>37743.91295000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>20422.18883</v>
+        <v>46013.48429</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>19505.30427</v>
+        <v>57948.00846000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>56805.89132</v>
+        <v>88438.76025000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>49135.49518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>86320.68846999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>99535.72500000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>166.60288</v>
+        <v>186.60288</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>55.72885</v>
@@ -1583,229 +1569,259 @@
         <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10.80201</v>
+        <v>11.07367</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>74.67867</v>
+        <v>246.33116</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>490.44493</v>
+        <v>494.73061</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>814.12944</v>
+        <v>942.5703500000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>624.6943299999999</v>
+        <v>1330.81242</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>45.91733</v>
+        <v>45.91734</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>224.14341</v>
+        <v>257.81149</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>174.68317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>263.41961</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3054.225</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1081.32085</v>
+        <v>1381.21211</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1180.67782</v>
+        <v>1308.69595</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1359.87889</v>
+        <v>1978.90074</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1281.64008</v>
+        <v>1637.3457</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>908.4111999999998</v>
+        <v>2499.40459</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1179.14951</v>
+        <v>5838.91209</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1328.07589</v>
+        <v>2330.73686</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1540.70574</v>
+        <v>3139.95114</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2407.97586</v>
+        <v>6603.69708</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>8948.035620000001</v>
+        <v>10237.86478</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7597.6935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9004.593239999998</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9863.190000000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>7802.389109999999</v>
+        <v>13164.34426</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>7912.815390000001</v>
+        <v>12791.63883</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>9876.642820000001</v>
+        <v>17336.05025</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>9373.46126</v>
+        <v>24918.91506</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>11426.77577</v>
+        <v>26788.312</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>12480.15153</v>
+        <v>38764.73826000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>15902.76793</v>
+        <v>34470.60574</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>18256.78876</v>
+        <v>41542.72072999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>17051.41108</v>
+        <v>51298.39404</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>47633.71228999999</v>
+        <v>77943.08398</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>41363.11851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>77052.67562000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>86618.31</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>734.3399499999999</v>
+        <v>-2900.84405</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>806.7157300000001</v>
+        <v>-3126.96229</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2373.12173</v>
+        <v>-5849.17697</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-2772.55772</v>
+        <v>-14543.6845</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-471.4245700000001</v>
+        <v>-11314.46275</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-15638.51796</v>
+        <v>-45690.24356</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1990.79041</v>
+        <v>-15533.4552</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-5433.131850000001</v>
+        <v>-24261.61147</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-3241.55248</v>
+        <v>-34491.26689</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>15713.05891</v>
+        <v>-2763.3822</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9155.596240000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-26845.48994</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-2561.903</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>719.47311</v>
+        <v>11848.97969</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1043.9298</v>
+        <v>16453.3288</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>837.36262</v>
+        <v>9592.052230000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>703.3095599999999</v>
+        <v>10425.42028</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>819.6723099999999</v>
+        <v>16879.24226</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2690.10077</v>
+        <v>31626.26528</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5576.526900000001</v>
+        <v>77659.22794</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1288.13744</v>
+        <v>57041.33855</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1155.13142</v>
+        <v>106095.93386</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13107.25576</v>
+        <v>363966.60461</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6704.616219999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>76871.08206</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>147031.806</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>30.27805</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>0.11792</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>0.11792</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>784.6479099999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>126.96791</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>1380.4786</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>255.52933</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>27.70847</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>687.705</v>
+        <v>3407.87301</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1651.37529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1853.4216</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3521.13</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,74 +1856,84 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>15.19903</v>
+        <v>1992.76421</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>47.8768</v>
+        <v>1686.56583</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>25.41663</v>
+        <v>1001.59099</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>69.83573</v>
+        <v>3017.09648</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>67.8062</v>
+        <v>2786.833</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>215.41201</v>
+        <v>1990.97617</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>271.46059</v>
+        <v>7018.20348</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>306.4811</v>
+        <v>5775.381449999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>68.92428</v>
+        <v>11089.76074</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>458.91444</v>
+        <v>25484.27437</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>483.00811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16416.07263</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4438.358</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3.0339</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>37.4766</v>
+        <v>38.33931</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>24.47446</v>
+        <v>24.49789</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>12.61703</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6.52242</v>
+        <v>6.56331</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1.18644</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>33.02808</v>
+        <v>144.76037</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>68.56948</v>
+        <v>83.56948</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>72.28742999999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>72.90481000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>119.638</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>91.85914</v>
@@ -1940,106 +1971,121 @@
         <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8.82414</v>
+        <v>70.37730999999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>206.25856</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>2e-05</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>0</v>
+        <v>177.882</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>18.0378</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0.00552</v>
+        <v>1.08193</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.05367</v>
+        <v>50.08868</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.53652</v>
+        <v>0.5744900000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.00362</v>
+        <v>300.94857</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2.43641</v>
+        <v>628.6447099999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.31547</v>
+        <v>2.21476</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0.00511</v>
+        <v>40.12886</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0.62176</v>
+        <v>31.92388</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3.31619</v>
+        <v>3.35355</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18.43255</v>
+        <v>18.43908</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>0.14998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7.90865</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>192.05</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>396.15635</v>
+        <v>9442.535679999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>727.4267600000001</v>
+        <v>13573.04895</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>537.4734</v>
+        <v>7367.844990000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>501.29792</v>
+        <v>4859.92193</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>717.9018299999999</v>
+        <v>11827.51499</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2272.71919</v>
+        <v>21672.69253</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5048.384849999999</v>
+        <v>65156.61539</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>711.9897999999999</v>
+        <v>46958.83311</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>956.28022</v>
+        <v>84056.37336</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11355.41082</v>
+        <v>330958.9842999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4012.554959999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>50582.96588</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>133502.872</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>182.94112</v>
+        <v>287.42678</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>171.8084</v>
+        <v>1045.88054</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>249.46161</v>
+        <v>1197.42595</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>114.20534</v>
+        <v>1444.83844</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>25.00545</v>
+        <v>1502.71834</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>200.46766</v>
+        <v>6403.57538</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>214.82413</v>
+        <v>3848.66393</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>200.4753</v>
+        <v>3729.84274</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>54.32328</v>
+        <v>10846.45029</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>555.13563</v>
+        <v>3887.49453</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>466.58527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7919.770689999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5257.758</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>825.8618</v>
+        <v>8985.151950000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1901.18111</v>
+        <v>14122.83369</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>847.9227100000001</v>
+        <v>8496.57178</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>595.5001399999999</v>
+        <v>9537.882509999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2032.53073</v>
+        <v>10679.70328</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2385.32259</v>
+        <v>20562.50556</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7250.20375</v>
+        <v>81992.08685000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>955.4805999999999</v>
+        <v>61950.58117</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5380.96884</v>
+        <v>100303.01938</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>142695.5812</v>
+        <v>484720.16553</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6049.287369999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>132294.63099</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>162387.771</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3.82316</v>
+        <v>3.93333</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>983.2021099999999</v>
+        <v>997.24601</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1.95257</v>
+        <v>4.78943</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7.28449</v>
+        <v>7.643149999999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>6.21349</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>23.8244</v>
+        <v>30.67958</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>47.75606</v>
+        <v>57.48437999999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>18.62693</v>
+        <v>32.74324</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4.98155</v>
+        <v>11.69891</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>44.22015</v>
+        <v>45.10715</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>34.34188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>39.56349000000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>182.822</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>228.55779</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1.68687</v>
+        <v>63.95357</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>4.68607</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>17.87232</v>
+        <v>174.29581</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1.69468</v>
+        <v>30.88578</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>796.97454</v>
+        <v>880.50174</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>307.6069</v>
+        <v>372.7709</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>46.94465</v>
+        <v>522.78516</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>0</v>
+        <v>147.57474</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>308.34499</v>
+        <v>316.05699</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>350.83323</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>217.854</v>
+        <v>284.98009</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>5.50847</v>
+        <v>155.81427</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.25085</v>
+        <v>0.25391</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>58.57944000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.23018</v>
+        <v>24.95898</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1.24235</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3.948</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>321.4346800000001</v>
+        <v>8291.076060000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>705.57326</v>
+        <v>12485.62436</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>718.45197</v>
+        <v>8193.37148</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>539.6350899999999</v>
+        <v>9020.14323</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2003.26393</v>
+        <v>8710.827869999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1437.28993</v>
+        <v>19335.5101</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5901.583099999999</v>
+        <v>79739.21719000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>867.7318199999999</v>
+        <v>60771.35418000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5337.671179999999</v>
+        <v>97960.08399</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10607.8399</v>
+        <v>352356.02798</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5237.89995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>50120.96778</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>160623.097</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>6.895020000000001</v>
@@ -2360,22 +2446,22 @@
         <v>1.90023</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1.56328</v>
+        <v>12.01989</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5.38795</v>
+        <v>136.70979</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>135.25532</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>121.96758</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>8.447790000000001</v>
+        <v>128.23149</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>30.02297</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.24371</v>
@@ -2405,7 +2496,7 @@
         <v>1.05275</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>45.13168</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47.05343999999999</v>
+        <v>169.46595</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>208.81864</v>
+        <v>569.60952</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>121.26882</v>
+        <v>281.70491</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>18.75907</v>
+        <v>42.22351</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>21.10778</v>
+        <v>1751.13523</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>127.23372</v>
+        <v>193.84656</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>984.8099</v>
+        <v>1635.80345</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>21.94702</v>
+        <v>568.71664</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37.07375999999999</v>
+        <v>2182.41939</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>131707.61759</v>
+        <v>131975.41484</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>426.21231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>81783.26649000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1577.176</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>605.58087</v>
+        <v>2813.47075</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>643.09989</v>
+        <v>4750.88475</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>731.00977</v>
+        <v>2179.89296</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>831.68751</v>
+        <v>3180.98077</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>635.17916</v>
+        <v>1826.88634</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>807.6282200000001</v>
+        <v>4376.780900000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>336.24801</v>
+        <v>11375.13579</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>802.1477100000001</v>
+        <v>8030.30487</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>334.01213</v>
+        <v>14400.39415</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2569.00719</v>
+        <v>20909.47012</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2352.31031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>35004.03507</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>12680.552</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>594.56871</v>
+        <v>2675.7115</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>625.926</v>
+        <v>3414.78434</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>725.39872</v>
+        <v>1594.25653</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>831.68751</v>
+        <v>2055.33134</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>635.17916</v>
+        <v>1826.88634</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>803.2629000000001</v>
+        <v>4320.73826</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>332.15308</v>
+        <v>10743.84223</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>788.1140000000001</v>
+        <v>7050.73342</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>314.61045</v>
+        <v>13596.45836</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2505.49461</v>
+        <v>19416.53665</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2352.31031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>12968.91553</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9792.865</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>11.01216</v>
+        <v>137.75925</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>17.17389</v>
+        <v>1336.10041</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>5.611050000000001</v>
+        <v>585.63643</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>1125.64943</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4.36532</v>
+        <v>56.04264</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4.094930000000001</v>
+        <v>631.29356</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>14.03371</v>
+        <v>979.5714499999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>19.40168</v>
+        <v>803.93579</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>63.51258</v>
+        <v>1492.93347</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>22035.11954</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2887.687</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>22.37038999999999</v>
+        <v>-2850.48706</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-693.6354699999999</v>
+        <v>-5547.35193</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-3114.69159</v>
+        <v>-6933.589480000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-3496.43581</v>
+        <v>-16837.1275</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-2319.46215</v>
+        <v>-6941.810109999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-16141.368</v>
+        <v>-39003.26474</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4000.71527</v>
+        <v>-31241.4499</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5902.62272</v>
+        <v>-37201.15896</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-7801.402029999999</v>
+        <v>-43098.74656</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-116444.27372</v>
+        <v>-144426.41324</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7458.614779999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-117273.07394</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-30598.42</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>254.20792</v>
+        <v>3585.20099</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>133.65207</v>
+        <v>1651.47398</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1124.50759</v>
+        <v>3577.58671</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>438.38602</v>
+        <v>6495.15868</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>497.12441</v>
+        <v>7345.385520000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2885.92112</v>
+        <v>25601.59468</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1469.28342</v>
+        <v>4275.17503</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>600.60083</v>
+        <v>3121.70786</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2252.678330000001</v>
+        <v>66294.86456999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3717.18702</v>
+        <v>105553.67811</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3799.38489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>24446.74236</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>20469.001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2.18677</v>
+        <v>17.95226</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>32.93048</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>0.13606</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2.10736</v>
+        <v>2.10737</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0.27738</v>
+        <v>11.77007</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>1488.35691</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2.37213</v>
+        <v>990.13861</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11.3062</v>
+        <v>15.2062</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5.0999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2.34036</v>
+        <v>151.40762</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0.47239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>127.87868</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>114.389</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>252.02115</v>
+        <v>3567.24873</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>133.65207</v>
+        <v>1618.5435</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1124.37153</v>
+        <v>3577.45065</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>436.27866</v>
+        <v>6493.051310000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>496.84703</v>
+        <v>7333.61545</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2885.92112</v>
+        <v>24113.23777</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1466.91129</v>
+        <v>3285.03642</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>589.29463</v>
+        <v>3106.50166</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2247.57843</v>
+        <v>66289.76467</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3714.84666</v>
+        <v>105402.27049</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3798.912499999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>24318.86368</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>20354.612</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>703.6343599999999</v>
+        <v>2598.82251</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>501.15777</v>
+        <v>3759.52431</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>6886.487899999999</v>
+        <v>10303.95674</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>734.6050499999998</v>
+        <v>22338.92644</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1142.43894</v>
+        <v>12534.12313</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8814.03124</v>
+        <v>20718.74611</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7055.61424</v>
+        <v>11554.61429</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3180.373849999999</v>
+        <v>32474.19098</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2458.40196</v>
+        <v>12072.97839</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7407.18059</v>
+        <v>58090.61942</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4171.31446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16896.58344</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>12625.365</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>30.99088</v>
+        <v>106.60966</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0</v>
+        <v>8.889430000000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>166.01976</v>
+        <v>182.01381</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>21.66559</v>
+        <v>27.05972</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>0</v>
+        <v>569.60473</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0</v>
+        <v>178.67398</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>39.88655</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>1006.66718</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>22.49038</v>
+        <v>1405.73085</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>33.22455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1292.82475</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1544.691</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>67.27369999999999</v>
+        <v>156.24225</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>71.00787</v>
+        <v>102.93492</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>263.42352</v>
+        <v>365.16905</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>57.40646</v>
+        <v>87.09553</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>476.69489</v>
+        <v>531.26833</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>469.54264</v>
+        <v>478.25212</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2278.74658</v>
+        <v>2523.94482</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>24.19092</v>
+        <v>392.46968</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1518.70228</v>
+        <v>1557.88454</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>684.0009500000001</v>
+        <v>769.29774</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>123.7229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>386.76705</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2927.653</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>605.3697799999999</v>
+        <v>2335.9706</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>430.1498999999999</v>
+        <v>3647.69996</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>6457.044619999999</v>
+        <v>9756.773879999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>655.5329999999999</v>
+        <v>22224.77119</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>665.7440499999999</v>
+        <v>12002.8548</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8344.488599999999</v>
+        <v>19670.88926</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4776.86766</v>
+        <v>8851.995489999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3156.18293</v>
+        <v>32041.83475</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>939.6996799999998</v>
+        <v>9508.426670000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>6700.68926</v>
+        <v>55915.59083000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4014.36701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>15216.99164</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8153.021</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-427.05605</v>
+        <v>-1864.10858</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1061.14117</v>
+        <v>-7655.40226</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-8876.671899999999</v>
+        <v>-13659.95951</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3792.65484</v>
+        <v>-32680.89526</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-2964.77668</v>
+        <v>-12130.54772</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-22069.47812</v>
+        <v>-34120.41617</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-9587.04609</v>
+        <v>-38520.88916000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-8482.39574</v>
+        <v>-66553.64208000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-8007.125659999999</v>
+        <v>11123.13962</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-120134.26729</v>
+        <v>-96963.35455</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7086.68521</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-109722.91502</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-22754.784</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>474.86239</v>
+        <v>667.63462</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>566.7068200000001</v>
+        <v>785.44637</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>372.85035</v>
+        <v>1068.76383</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>429.05731</v>
+        <v>1052.62553</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>595.19267</v>
+        <v>1335.44889</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>307.87344</v>
+        <v>936.20077</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>511.14056</v>
+        <v>1498.85651</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>563.365</v>
+        <v>1600.85511</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>603.90364</v>
+        <v>1439.67349</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1705.11229</v>
+        <v>5261.22852</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2758.18165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3536.7958</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5672.778</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-901.91844</v>
+        <v>-2531.7432</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-1627.84799</v>
+        <v>-8440.84863</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-9249.52225</v>
+        <v>-14728.72334</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4221.71215</v>
+        <v>-33733.52079</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3559.96935</v>
+        <v>-13465.99661</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-22377.35156</v>
+        <v>-35056.61694</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-10098.18665</v>
+        <v>-40019.74567</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-9045.76074</v>
+        <v>-68154.49718999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8611.0293</v>
+        <v>9683.466129999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-121839.37958</v>
+        <v>-102224.58307</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4328.50356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-113259.71082</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-28427.562</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>347</v>
+        <v>450</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>349</v>
+        <v>464</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>363</v>
+        <v>479</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>387</v>
+        <v>526</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>412</v>
+        <v>553</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>678</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>